--- a/quizsheets/m2_mada_data_analysis_intro_student.xlsx
+++ b/quizsheets/m2_mada_data_analysis_intro_student.xlsx
@@ -387,7 +387,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>mada_data_analysis_intro</t>
+          <t>m2_mada_data_analysis_intro</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -407,11 +407,6 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>mada_data_analysis_intro</t>
-        </is>
-      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>quiz2q2</t>
@@ -429,11 +424,6 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>mada_data_analysis_intro</t>
-        </is>
-      </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>quiz2q3</t>
@@ -451,11 +441,6 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>mada_data_analysis_intro</t>
-        </is>
-      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>quiz2q4</t>
@@ -473,11 +458,6 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>mada_data_analysis_intro</t>
-        </is>
-      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>quiz2q5</t>
@@ -495,11 +475,6 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>mada_data_analysis_intro</t>
-        </is>
-      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>quiz2q6</t>
@@ -517,11 +492,6 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>mada_data_analysis_intro</t>
-        </is>
-      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>quiz2q7</t>
@@ -539,11 +509,6 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>mada_data_analysis_intro</t>
-        </is>
-      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>quiz2q8</t>
@@ -561,11 +526,6 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>mada_data_analysis_intro</t>
-        </is>
-      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>quiz2q9</t>
@@ -583,11 +543,6 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>mada_data_analysis_intro</t>
-        </is>
-      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>quiz2q10</t>

--- a/quizsheets/m2_mada_data_analysis_intro_student.xlsx
+++ b/quizsheets/m2_mada_data_analysis_intro_student.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -559,6 +559,23 @@
         </is>
       </c>
     </row>
+    <row r="12">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>quiz2q11</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>In his video, Roger Peng mentions a concept that allows mixing of text and code. Is this concept called "Code and Text Mixture"?</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Report Yes or No</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
